--- a/OSA aulas/folhadepag.xlsx
+++ b/OSA aulas/folhadepag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Android\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PEDRO_5245\Downloads\Billafranca-DS-main\OSA aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B204A9-B8A8-43B7-89DA-6659241B69C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7A56CB-542B-4270-86E5-6B902F7F6B74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{A11F8DD6-C341-4FC8-91E0-AED5FF08EFF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{A11F8DD6-C341-4FC8-91E0-AED5FF08EFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -403,7 +403,7 @@
     <xf numFmtId="44" fontId="1" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2275B8-9104-420F-8D97-78E86763D4EF}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1480,8 +1480,8 @@
         <v>11</v>
       </c>
       <c r="B30" s="19">
-        <f t="shared" ref="B30:B31" si="2">COUNTIF(B5:B26, "ADM")</f>
-        <v>5</v>
+        <f>COUNTIF(B5:B26, "CONTAB")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1489,8 +1489,8 @@
         <v>9</v>
       </c>
       <c r="B31" s="19">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>COUNTIF(B6:B27, "FINAN")</f>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
